--- a/records/processing/Processed_Slabs.xlsx
+++ b/records/processing/Processed_Slabs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>11519-20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,21 +497,13 @@
           <t>Cleveland, OH</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>columns</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>8</v>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>06-16-21</t>
+          <t>07-09-20</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -525,41 +517,261 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4321</t>
+          <t>24019-32</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>76</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{'height': 6, 'width': 8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>DallasWhite</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>UnitedStoneInternational</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Cleveland, OH</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>columns</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>28</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{'height': 6, 'width': 8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>76</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>{'height': 6, 'width': 8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>28</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>{'height': 6, 'width': 8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>76</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>{'height': 6, 'width': 8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>28</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>{'height': 6, 'width': 8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>06-16-21</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>76</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>{'height': 6, 'width': 8}</t>
         </is>

--- a/records/processing/Processed_Slabs.xlsx
+++ b/records/processing/Processed_Slabs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,234 +549,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>11519-20</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>DallasWhite</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>UnitedStoneInternational</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Cleveland, OH</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>07-09-20</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>28</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>{'height': 6, 'width': 8}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>24019-32</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>LunaPearl</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UnitedStoneInternational</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Cleveland, OH</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>07-09-20</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>76</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>{'height': 6, 'width': 8}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>11519-20</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>DallasWhite</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UnitedStoneInternational</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cleveland, OH</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>07-09-20</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>28</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>{'height': 6, 'width': 8}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>24019-32</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LunaPearl</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>UnitedStoneInternational</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Cleveland, OH</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>07-09-20</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>76</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>{'height': 6, 'width': 8}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>11519-20</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DallasWhite</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>UnitedStoneInternational</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Cleveland, OH</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>07-09-20</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>28</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>{'height': 6, 'width': 8}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>24019-32</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>LunaPearl</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>UnitedStoneInternational</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Cleveland, OH</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>07-09-20</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>76</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>{'height': 6, 'width': 8}</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/records/processing/Processed_Slabs.xlsx
+++ b/records/processing/Processed_Slabs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,82 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>28</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{'height': 6, 'width': 8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>76</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>{'height': 6, 'width': 8}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
